--- a/Data/investments in the fixed assets.xlsx
+++ b/Data/investments in the fixed assets.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19660" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="investments in the fixed assets" sheetId="2" r:id="rId1"/>
     <sheet name="information" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,16 +69,7 @@
     <t>other serivices</t>
   </si>
   <si>
-    <t>million UAN</t>
-  </si>
-  <si>
     <t>million USD</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>catecogry</t>
   </si>
   <si>
     <r>
@@ -88,7 +92,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>http://www.ukrstat.gov.ua/</t>
@@ -110,7 +113,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -154,7 +156,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>for relevant year. Particular link is not available. Selection must be done by a user to select necessary information in the working area</t>
@@ -181,7 +182,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>http://www.ukrstat.gov.ua/</t>
@@ -203,7 +203,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -247,7 +246,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>for relevant year. Particular link is not available. Selection must be done by a user to select necessary information in the working area</t>
@@ -259,18 +257,34 @@
   <si>
     <t xml:space="preserve">Data in USD was calculated on the base of the currency exchange rate for the relevant year  </t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>million UAH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,16 +330,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -333,37 +347,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,14 +421,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -435,14 +455,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -469,9 +490,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,36 +666,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2004</v>
       </c>
@@ -687,7 +709,7 @@
         <v>614.66</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2005</v>
       </c>
@@ -701,7 +723,7 @@
         <v>993.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2006</v>
       </c>
@@ -715,7 +737,7 @@
         <v>1447.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2007</v>
       </c>
@@ -729,7 +751,7 @@
         <v>1884.99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2008</v>
       </c>
@@ -743,7 +765,7 @@
         <v>2111.2600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2009</v>
       </c>
@@ -757,7 +779,7 @@
         <v>938.17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2010</v>
       </c>
@@ -771,7 +793,7 @@
         <v>1223.0999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2011</v>
       </c>
@@ -785,7 +807,7 @@
         <v>1818.26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2012</v>
       </c>
@@ -799,7 +821,7 @@
         <v>1605.28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2013</v>
       </c>
@@ -813,7 +835,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2014</v>
       </c>
@@ -827,7 +849,7 @@
         <v>1713.73</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2015</v>
       </c>
@@ -841,7 +863,7 @@
         <v>1191.54</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2004</v>
       </c>
@@ -855,7 +877,7 @@
         <v>5125.59</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2005</v>
       </c>
@@ -869,7 +891,7 @@
         <v>6936.86</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2006</v>
       </c>
@@ -883,7 +905,7 @@
         <v>8872.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2007</v>
       </c>
@@ -897,7 +919,7 @@
         <v>12740.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2008</v>
       </c>
@@ -911,7 +933,7 @@
         <v>9577.2099999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2009</v>
       </c>
@@ -925,7 +947,7 @@
         <v>5765.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2010</v>
       </c>
@@ -939,7 +961,7 @@
         <v>5855.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2011</v>
       </c>
@@ -953,7 +975,7 @@
         <v>8631.2800000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2012</v>
       </c>
@@ -967,7 +989,7 @@
         <v>9496.59</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2013</v>
       </c>
@@ -981,7 +1003,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2014</v>
       </c>
@@ -995,7 +1017,7 @@
         <v>8274.3799999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2015</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>2744.94</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2004</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>848.93</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2005</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>976.04</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2006</v>
       </c>
@@ -1051,7 +1073,7 @@
         <v>1247.56</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2007</v>
       </c>
@@ -1065,7 +1087,7 @@
         <v>1803.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2008</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>1558.64</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2009</v>
       </c>
@@ -1093,7 +1115,7 @@
         <v>532.49</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2010</v>
       </c>
@@ -1107,7 +1129,7 @@
         <v>496.62</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2011</v>
       </c>
@@ -1121,7 +1143,7 @@
         <v>854.11</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2012</v>
       </c>
@@ -1135,7 +1157,7 @@
         <v>3641.51</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2013</v>
       </c>
@@ -1149,7 +1171,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2014</v>
       </c>
@@ -1163,7 +1185,7 @@
         <v>3386.95</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2015</v>
       </c>
@@ -1177,7 +1199,7 @@
         <v>1104.06</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2004</v>
       </c>
@@ -1191,7 +1213,7 @@
         <v>967.72</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2005</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>1507.73</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2006</v>
       </c>
@@ -1219,7 +1241,7 @@
         <v>2307.86</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2007</v>
       </c>
@@ -1233,7 +1255,7 @@
         <v>3520.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2008</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>3086.81</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2009</v>
       </c>
@@ -1261,7 +1283,7 @@
         <v>1409.12</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2010</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2011</v>
       </c>
@@ -1289,7 +1311,7 @@
         <v>1726.41</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2012</v>
       </c>
@@ -1303,7 +1325,7 @@
         <v>1642.32</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2013</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2014</v>
       </c>
@@ -1331,7 +1353,7 @@
         <v>1962.38</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2015</v>
       </c>
@@ -1345,7 +1367,7 @@
         <v>41.91</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2004</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>195.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2005</v>
       </c>
@@ -1373,7 +1395,7 @@
         <v>298.64999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2006</v>
       </c>
@@ -1387,7 +1409,7 @@
         <v>293.74</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2007</v>
       </c>
@@ -1401,7 +1423,7 @@
         <v>517.59</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2008</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v>402.738</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2009</v>
       </c>
@@ -1429,7 +1451,7 @@
         <v>258.89999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2010</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>307.23</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2011</v>
       </c>
@@ -1457,7 +1479,7 @@
         <v>490.76</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2012</v>
       </c>
@@ -1471,7 +1493,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2013</v>
       </c>
@@ -1485,7 +1507,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2014</v>
       </c>
@@ -1499,7 +1521,7 @@
         <v>117.55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" customHeight="1">
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2015</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2004</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>2730.05</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2005</v>
       </c>
@@ -1541,7 +1563,7 @@
         <v>1856.6</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2006</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>4025.45</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2007</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>6279.1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2008</v>
       </c>
@@ -1586,7 +1608,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2009</v>
       </c>
@@ -1601,7 +1623,7 @@
         <v>1498.67</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2010</v>
       </c>
@@ -1616,7 +1638,7 @@
         <v>2310.4</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2011</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>3273.02</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2012</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>2779.12</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2013</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2014</v>
       </c>
@@ -1674,7 +1696,7 @@
         <v>1395.6</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2015</v>
       </c>
@@ -1688,7 +1710,7 @@
         <v>578.10400000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2004</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>1027.46</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2005</v>
       </c>
@@ -1716,7 +1738,7 @@
         <v>1691.34</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2006</v>
       </c>
@@ -1730,7 +1752,7 @@
         <v>1958.62</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2007</v>
       </c>
@@ -1744,7 +1766,7 @@
         <v>2473.0300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2008</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>1363.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2009</v>
       </c>
@@ -1772,7 +1794,7 @@
         <v>956.84</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2010</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>598.04999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2011</v>
       </c>
@@ -1800,7 +1822,7 @@
         <v>664.49</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2012</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>690.95</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>2013</v>
       </c>
@@ -1828,7 +1850,7 @@
         <v>978.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2014</v>
       </c>
@@ -1842,7 +1864,7 @@
         <v>840.34</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>2015</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>359.38</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2004</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>226.38</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2005</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>388.9</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>2006</v>
       </c>
@@ -1898,7 +1920,7 @@
         <v>472.54</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>2007</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>824.73</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>2008</v>
       </c>
@@ -1926,7 +1948,7 @@
         <v>579.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2009</v>
       </c>
@@ -1940,7 +1962,7 @@
         <v>335.88</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>2010</v>
       </c>
@@ -1954,7 +1976,7 @@
         <v>285.93</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>2011</v>
       </c>
@@ -1968,7 +1990,7 @@
         <v>315.18</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>2012</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>651.33000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>2013</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>663.8</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>2014</v>
       </c>
@@ -2010,7 +2032,7 @@
         <v>627.48</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>2015</v>
       </c>
@@ -2024,7 +2046,7 @@
         <v>175.7</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2004</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>2043.32</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2005</v>
       </c>
@@ -2052,7 +2074,7 @@
         <v>3036.43</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2006</v>
       </c>
@@ -2066,7 +2088,7 @@
         <v>4757.62</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2007</v>
       </c>
@@ -2080,7 +2102,7 @@
         <v>7804.85</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2008</v>
       </c>
@@ -2094,7 +2116,7 @@
         <v>6104.95</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2009</v>
       </c>
@@ -2108,7 +2130,7 @@
         <v>2567.7600000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2010</v>
       </c>
@@ -2122,7 +2144,7 @@
         <v>3718.9</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>2011</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>4210.67</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2012</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>3075.71</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>2013</v>
       </c>
@@ -2164,7 +2186,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>2014</v>
       </c>
@@ -2178,7 +2200,7 @@
         <v>843.29</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>2015</v>
       </c>
@@ -2192,7 +2214,7 @@
         <v>519.62</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>2004</v>
       </c>
@@ -2206,7 +2228,7 @@
         <v>210.13</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>2005</v>
       </c>
@@ -2220,7 +2242,7 @@
         <v>156.96</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>2006</v>
       </c>
@@ -2234,7 +2256,7 @@
         <v>208.64</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>2007</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>311.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>2008</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>227.43</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>2009</v>
       </c>
@@ -2276,7 +2298,7 @@
         <v>89.42</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>2010</v>
       </c>
@@ -2290,7 +2312,7 @@
         <v>129.47999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>2011</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>185.76</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>2012</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>1168.8399999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>2013</v>
       </c>
@@ -2332,7 +2354,7 @@
         <v>723.7</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>2014</v>
       </c>
@@ -2346,7 +2368,7 @@
         <v>441.31</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>2015</v>
       </c>
@@ -2360,7 +2382,7 @@
         <v>303.07</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>2004</v>
       </c>
@@ -2374,7 +2396,7 @@
         <v>173.29</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>2005</v>
       </c>
@@ -2388,7 +2410,7 @@
         <v>172.32</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>2006</v>
       </c>
@@ -2402,7 +2424,7 @@
         <v>230.38</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>2007</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>2008</v>
       </c>
@@ -2430,7 +2452,7 @@
         <v>290.22000000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>2009</v>
       </c>
@@ -2444,7 +2466,7 @@
         <v>148.43</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>2010</v>
       </c>
@@ -2458,7 +2480,7 @@
         <v>187.25</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>2011</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>248.52</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>2012</v>
       </c>
@@ -2486,7 +2508,7 @@
         <v>132.82</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>2013</v>
       </c>
@@ -2500,7 +2522,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>2014</v>
       </c>
@@ -2514,7 +2536,7 @@
         <v>62.71</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>2015</v>
       </c>
@@ -2528,7 +2550,7 @@
         <v>35.81</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>2004</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>267.68</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>2005</v>
       </c>
@@ -2556,7 +2578,7 @@
         <v>256.74</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>2006</v>
       </c>
@@ -2570,7 +2592,7 @@
         <v>363.41</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>2007</v>
       </c>
@@ -2584,7 +2606,7 @@
         <v>498.63</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>2008</v>
       </c>
@@ -2598,7 +2620,7 @@
         <v>441.33</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>2009</v>
       </c>
@@ -2612,7 +2634,7 @@
         <v>193.16</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>2010</v>
       </c>
@@ -2626,7 +2648,7 @@
         <v>275.39</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>2011</v>
       </c>
@@ -2640,7 +2662,7 @@
         <v>345.15</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>2012</v>
       </c>
@@ -2654,7 +2676,7 @@
         <v>259.48</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>2013</v>
       </c>
@@ -2668,7 +2690,7 @@
         <v>189.4</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>2014</v>
       </c>
@@ -2682,7 +2704,7 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>2015</v>
       </c>
@@ -2696,7 +2718,7 @@
         <v>63.32</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>2004</v>
       </c>
@@ -2710,7 +2732,7 @@
         <v>355.24</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>2005</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>361.64</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>2006</v>
       </c>
@@ -2738,7 +2760,7 @@
         <v>565.17999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>2007</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>804.2</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>2008</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>677.56299999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>2009</v>
       </c>
@@ -2780,7 +2802,7 @@
         <v>480.85</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>2010</v>
       </c>
@@ -2794,7 +2816,7 @@
         <v>531.46</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>2011</v>
       </c>
@@ -2808,7 +2830,7 @@
         <v>1050.1400000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>2012</v>
       </c>
@@ -2822,7 +2844,7 @@
         <v>368.27</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>2013</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>2014</v>
       </c>
@@ -2850,7 +2872,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>2015</v>
       </c>
@@ -2874,36 +2896,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
